--- a/biology/Zoologie/Eucoelogaster/Eucoelogaster.xlsx
+++ b/biology/Zoologie/Eucoelogaster/Eucoelogaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coelogaster leptostea, Coelogaster
-Eucoelogaster est un genre fossile de poissons marins à nageoires rayonnées, mal connu, rattaché incertae sedis (de façon incertaine) à ordre des Gonorynchiformes (Anatophysi)[1],[2], un taxon dont l'espèce actuelle la plus connue est le poisson-lait ou chano (Chanos chanos), la seule espèce vivante de la famille des Chanidae[3]. Ce genre, anciennement Coleogaster, a deux espèces Coelogaster analis et Coelogaster leptostea référencées selon Paleobiology Database en 2023.
+Eucoelogaster est un genre fossile de poissons marins à nageoires rayonnées, mal connu, rattaché incertae sedis (de façon incertaine) à ordre des Gonorynchiformes (Anatophysi) un taxon dont l'espèce actuelle la plus connue est le poisson-lait ou chano (Chanos chanos), la seule espèce vivante de la famille des Chanidae. Ce genre, anciennement Coleogaster, a deux espèces Coelogaster analis et Coelogaster leptostea référencées selon Paleobiology Database en 2023.
 </t>
         </is>
       </c>
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Une seule espèce est généralement rattachée au genre : Coelogaster leptostea, décrite par le paléontologue C. R. Eastman en 1905[4].
-Une seconde espèce Coelogaster analis est attribuée à C. R. Eastman[4], 1905 selon le Muséum national d'histoire naturelle[5] ou, selon Paleobiology Database                   (4 mars 2019)[6], à L. Agassiz[7], 1835. Selon Paleobiology Database en 2023, aucune collection pour cette espèce n'est référencée[8].
-Par ailleurs, un genre d'insectes coléoptères de la famille des Curculionidae porte le même nom : Coelogaster[9],[10].
-Découverte et datation
-Les fossiles de Eucoelogaster et d'une autre espèce proche Chanoides macropoma, ne sont connus que sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Ils sont cependant relativement rares à la différence de la plupart des espèces de poissons de ce gisement fossilifère[1]. Coelogaster leptostea a vécu dans les mers tropicales de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années)[11],[12]. 
-L'environnement péri-récifal tropical de l'Éocène du Monte Bolca est sous influence à la fois côtière et de mer ouverte. Dans cet environnement, les fossiles ont été préservés dans des sédiments calcaires laminés, déposés dans une dépression à faible énergie, sous un environnement anoxique.
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une seule espèce est généralement rattachée au genre : Coelogaster leptostea, décrite par le paléontologue C. R. Eastman en 1905.
+Une seconde espèce Coelogaster analis est attribuée à C. R. Eastman, 1905 selon le Muséum national d'histoire naturelle ou, selon Paleobiology Database                   (4 mars 2019), à L. Agassiz, 1835. Selon Paleobiology Database en 2023, aucune collection pour cette espèce n'est référencée.
+Par ailleurs, un genre d'insectes coléoptères de la famille des Curculionidae porte le même nom : Coelogaster,.
 </t>
         </is>
       </c>
@@ -546,10 +560,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Découverte et datation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles de Eucoelogaster et d'une autre espèce proche Chanoides macropoma, ne sont connus que sur le célèbre site paléontologique (Lagerstätte) du Monte Bolca sur la zone dite de « Pesciara », en Vénétie (Italie). Ils sont cependant relativement rares à la différence de la plupart des espèces de poissons de ce gisement fossilifère. Coelogaster leptostea a vécu dans les mers tropicales de l'océan Téthys, précurseur de la Méditerranée, au cours de l'Éocène inférieur (Yprésien), il y a environ entre 49 et 48,5 Ma (millions d'années),. 
+L'environnement péri-récifal tropical de l'Éocène du Monte Bolca est sous influence à la fois côtière et de mer ouverte. Dans cet environnement, les fossiles ont été préservés dans des sédiments calcaires laminés, déposés dans une dépression à faible énergie, sous un environnement anoxique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eucoelogaster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucoelogaster</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucoelogaster a un corps fusiforme, allongé, modérément comprimé, comme le chano actuel ; il parait cependant un peu plus petit, n'atteignant pas 1 mètre de long. Il est caractérisé par une nageoire caudale profondément fourchue.
 </t>
